--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDB02A-DEA7-4367-BB64-E516C503A68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863BF1AB-DEE4-41DC-93AE-3C86DF81E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxAbil" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>94</v>
       </c>
       <c r="D2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -535,7 +535,7 @@
         <v>95</v>
       </c>
       <c r="D3">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -555,7 +555,7 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -575,7 +575,7 @@
         <v>97</v>
       </c>
       <c r="D5">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
         <v>5000</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863BF1AB-DEE4-41DC-93AE-3C86DF81E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677A0FC-1CF1-4AB7-BD90-71BCCCD703F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>bf3</t>
+  </si>
+  <si>
+    <t>초월 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,6 +592,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677A0FC-1CF1-4AB7-BD90-71BCCCD703F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CEF42-A236-449C-9759-745624F692DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -566,7 +566,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -606,7 +606,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CEF42-A236-449C-9759-745624F692DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB6E59-DB13-42A4-86BA-AB70CF6DA6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxAbil" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -566,7 +566,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -606,7 +606,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB6E59-DB13-42A4-86BA-AB70CF6DA6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54D324D-D93C-4AA7-AEE7-6A4F989E238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>bf4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[진] 귀살 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,6 +620,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>115</v>
+      </c>
+      <c r="D7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E7">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54D324D-D93C-4AA7-AEE7-6A4F989E238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28057E77-7FD5-4B9E-ACCF-D56FDAFF4378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxAbil" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28057E77-7FD5-4B9E-ACCF-D56FDAFF4378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757587A-A78C-4724-AB28-D0E0B2182ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757587A-A78C-4724-AB28-D0E0B2182ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6DD55-E158-468C-95D3-36F3751C6DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6DD55-E158-468C-95D3-36F3751C6DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7BB1D-653B-4459-9BE1-5423AC780673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7BB1D-653B-4459-9BE1-5423AC780673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C606E2E-41BE-4459-A062-C41D7EBDECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C606E2E-41BE-4459-A062-C41D7EBDECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FB00C-6A8B-49A5-B02B-FCF3DE3ED708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FB00C-6A8B-49A5-B02B-FCF3DE3ED708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC50C2-4D29-42F9-B439-B6FFD3ACF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>

--- a/Assets/06.Table/BlackFoxAbil.xlsx
+++ b/Assets/06.Table/BlackFoxAbil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC50C2-4D29-42F9-B439-B6FFD3ACF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A32BA8-CF15-414E-AC09-FD699D8E7707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -614,7 +614,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -634,7 +634,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
